--- a/BaseLimpo/2020_coleta_tipos_residuos.xlsx
+++ b/BaseLimpo/2020_coleta_tipos_residuos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N34"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,7 +508,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Domiciliar                                            </t>
+          <t>Domiciliar</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -554,7 +554,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Entulho Mecanizado                                    </t>
+          <t>Entulho Mecanizado</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -600,7 +600,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Residuos De Ecoponto                                  </t>
+          <t>Residuos De Ecoponto</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -646,7 +646,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Diversos                                              </t>
+          <t>Diversos</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -692,7 +692,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Esgoto                                                </t>
+          <t>Esgoto</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -738,7 +738,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Residuos De Piscinao                                  </t>
+          <t>Residuos De Piscinao</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -784,7 +784,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Residuos De Corregos                                  </t>
+          <t>Residuos De Corregos</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -830,7 +830,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Varricao                                              </t>
+          <t>Varricao</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -876,7 +876,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Seletiva                                              </t>
+          <t>Seletiva</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -922,7 +922,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Feira Livre                                           </t>
+          <t>Feira Livre</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -968,7 +968,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Entulho Manual                                        </t>
+          <t>Entulho Manual</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1014,7 +1014,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Poda                                                  </t>
+          <t>Poda</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1060,7 +1060,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gg Saude                                              </t>
+          <t>Gg Saude</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1106,7 +1106,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rejeito-Cmt Cmj                                       </t>
+          <t>Rejeito-Cmt Cmj</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1152,7 +1152,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Residuos De Boca De Lobo                              </t>
+          <t>Residuos De Boca De Lobo</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1198,7 +1198,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pg Saude                                              </t>
+          <t>Pg Saude</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1244,7 +1244,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Remocao Residuos Descartados                          </t>
+          <t>Remocao Residuos Descartados</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1290,7 +1290,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Residuos Patio Compostagem                            </t>
+          <t>Residuos Patio Compostagem</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1336,7 +1336,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rejeito                                               </t>
+          <t>Rejeito</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1382,7 +1382,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Entulho Apreendido                                    </t>
+          <t>Entulho Apreendido</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1428,7 +1428,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Madeira                                               </t>
+          <t>Madeira</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1474,7 +1474,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Animais                                               </t>
+          <t>Animais</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1520,7 +1520,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Varricao Mecanizada                                   </t>
+          <t>Varricao Mecanizada</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -1566,7 +1566,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alim Vencidos                                         </t>
+          <t>Alim Vencidos</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1612,7 +1612,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Material Apreendido                                   </t>
+          <t>Material Apreendido</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1658,7 +1658,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Residuo De Acumulador                                 </t>
+          <t>Residuo De Acumulador</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1704,7 +1704,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Residuo De Desfazimento                               </t>
+          <t>Residuo De Desfazimento</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1750,7 +1750,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Equipe De Eventos Especiais E Operacoes De Emergencia </t>
+          <t>Equipe De Eventos Especiais E Operacoes De Emergencia</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1796,7 +1796,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Residuo Ecoponto - Entulho                            </t>
+          <t>Residuo Ecoponto - Entulho</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1842,7 +1842,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Entulho Do Predio                                     </t>
+          <t>Entulho Do Predio</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1888,7 +1888,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Limpeza Urbana                                        </t>
+          <t>Limpeza Urbana</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -1934,7 +1934,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Residuos De Ecoponto - Diversos                       </t>
+          <t>Residuos De Ecoponto - Diversos</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -1975,52 +1975,6 @@
       </c>
       <c r="N33" t="n">
         <v>457.244</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Total Geral                                           </t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>484.276</v>
-      </c>
-      <c r="C34" t="n">
-        <v>460.635</v>
-      </c>
-      <c r="D34" t="n">
-        <v>498.195</v>
-      </c>
-      <c r="E34" t="n">
-        <v>442.344</v>
-      </c>
-      <c r="F34" t="n">
-        <v>438.957</v>
-      </c>
-      <c r="G34" t="n">
-        <v>487.207</v>
-      </c>
-      <c r="H34" t="n">
-        <v>500.79</v>
-      </c>
-      <c r="I34" t="n">
-        <v>469.325</v>
-      </c>
-      <c r="J34" t="n">
-        <v>479.258</v>
-      </c>
-      <c r="K34" t="n">
-        <v>482.262</v>
-      </c>
-      <c r="L34" t="n">
-        <v>457.69</v>
-      </c>
-      <c r="M34" t="n">
-        <v>518.438</v>
-      </c>
-      <c r="N34" t="n">
-        <v>5719.376999999999</v>
       </c>
     </row>
   </sheetData>

--- a/BaseLimpo/2020_coleta_tipos_residuos.xlsx
+++ b/BaseLimpo/2020_coleta_tipos_residuos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N33"/>
+  <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1977,6 +1977,52 @@
         <v>457.244</v>
       </c>
     </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Total Geral</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>484.276</v>
+      </c>
+      <c r="C34" t="n">
+        <v>460.635</v>
+      </c>
+      <c r="D34" t="n">
+        <v>498.195</v>
+      </c>
+      <c r="E34" t="n">
+        <v>442.344</v>
+      </c>
+      <c r="F34" t="n">
+        <v>438.957</v>
+      </c>
+      <c r="G34" t="n">
+        <v>487.207</v>
+      </c>
+      <c r="H34" t="n">
+        <v>500.79</v>
+      </c>
+      <c r="I34" t="n">
+        <v>469.325</v>
+      </c>
+      <c r="J34" t="n">
+        <v>479.258</v>
+      </c>
+      <c r="K34" t="n">
+        <v>482.262</v>
+      </c>
+      <c r="L34" t="n">
+        <v>457.69</v>
+      </c>
+      <c r="M34" t="n">
+        <v>518.438</v>
+      </c>
+      <c r="N34" t="n">
+        <v>5719.376999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/BaseLimpo/2020_coleta_tipos_residuos.xlsx
+++ b/BaseLimpo/2020_coleta_tipos_residuos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N34"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1977,52 +1977,6 @@
         <v>457.244</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Total Geral</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>484.276</v>
-      </c>
-      <c r="C34" t="n">
-        <v>460.635</v>
-      </c>
-      <c r="D34" t="n">
-        <v>498.195</v>
-      </c>
-      <c r="E34" t="n">
-        <v>442.344</v>
-      </c>
-      <c r="F34" t="n">
-        <v>438.957</v>
-      </c>
-      <c r="G34" t="n">
-        <v>487.207</v>
-      </c>
-      <c r="H34" t="n">
-        <v>500.79</v>
-      </c>
-      <c r="I34" t="n">
-        <v>469.325</v>
-      </c>
-      <c r="J34" t="n">
-        <v>479.258</v>
-      </c>
-      <c r="K34" t="n">
-        <v>482.262</v>
-      </c>
-      <c r="L34" t="n">
-        <v>457.69</v>
-      </c>
-      <c r="M34" t="n">
-        <v>518.438</v>
-      </c>
-      <c r="N34" t="n">
-        <v>5719.376999999999</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/BaseLimpo/2020_coleta_tipos_residuos.xlsx
+++ b/BaseLimpo/2020_coleta_tipos_residuos.xlsx
@@ -512,43 +512,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>317.183</v>
+        <v>317183</v>
       </c>
       <c r="C2" t="n">
-        <v>301.322</v>
+        <v>301322</v>
       </c>
       <c r="D2" t="n">
-        <v>317.174</v>
+        <v>317174</v>
       </c>
       <c r="E2" t="n">
-        <v>276.684</v>
+        <v>276684</v>
       </c>
       <c r="F2" t="n">
-        <v>276.721</v>
+        <v>276721</v>
       </c>
       <c r="G2" t="n">
-        <v>303.261</v>
+        <v>303261</v>
       </c>
       <c r="H2" t="n">
-        <v>303.903</v>
+        <v>303903</v>
       </c>
       <c r="I2" t="n">
-        <v>297.064</v>
+        <v>297064</v>
       </c>
       <c r="J2" t="n">
-        <v>300.749</v>
+        <v>300749</v>
       </c>
       <c r="K2" t="n">
-        <v>304.548</v>
+        <v>304548</v>
       </c>
       <c r="L2" t="n">
-        <v>288.071</v>
+        <v>288071</v>
       </c>
       <c r="M2" t="n">
-        <v>332.637</v>
+        <v>332637</v>
       </c>
       <c r="N2" t="n">
-        <v>3619.317</v>
+        <v>3619317</v>
       </c>
     </row>
     <row r="3">
@@ -558,43 +558,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11.783</v>
+        <v>11783</v>
       </c>
       <c r="C3" t="n">
-        <v>10.175</v>
+        <v>10175</v>
       </c>
       <c r="D3" t="n">
-        <v>12.628</v>
+        <v>12628</v>
       </c>
       <c r="E3" t="n">
-        <v>11.08</v>
+        <v>1108</v>
       </c>
       <c r="F3" t="n">
-        <v>10.858</v>
+        <v>10858</v>
       </c>
       <c r="G3" t="n">
-        <v>12.92</v>
+        <v>1292</v>
       </c>
       <c r="H3" t="n">
-        <v>12.996</v>
+        <v>12996</v>
       </c>
       <c r="I3" t="n">
-        <v>9.696999999999999</v>
+        <v>9697</v>
       </c>
       <c r="J3" t="n">
-        <v>8.712999999999999</v>
+        <v>8713</v>
       </c>
       <c r="K3" t="n">
-        <v>9.254</v>
+        <v>9254</v>
       </c>
       <c r="L3" t="n">
-        <v>7.883</v>
+        <v>7883</v>
       </c>
       <c r="M3" t="n">
-        <v>7.443</v>
+        <v>7443</v>
       </c>
       <c r="N3" t="n">
-        <v>125.43</v>
+        <v>103830</v>
       </c>
     </row>
     <row r="4">
@@ -604,43 +604,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>32.876</v>
+        <v>32876</v>
       </c>
       <c r="C4" t="n">
-        <v>34.225</v>
+        <v>34225</v>
       </c>
       <c r="D4" t="n">
-        <v>36.639</v>
+        <v>36639</v>
       </c>
       <c r="E4" t="n">
-        <v>29.838</v>
+        <v>29838</v>
       </c>
       <c r="F4" t="n">
-        <v>28.588</v>
+        <v>28588</v>
       </c>
       <c r="G4" t="n">
-        <v>29.419</v>
+        <v>29419</v>
       </c>
       <c r="H4" t="n">
-        <v>33.996</v>
+        <v>33996</v>
       </c>
       <c r="I4" t="n">
-        <v>29.855</v>
+        <v>29855</v>
       </c>
       <c r="J4" t="n">
-        <v>31.316</v>
+        <v>31316</v>
       </c>
       <c r="K4" t="n">
-        <v>31.237</v>
+        <v>31237</v>
       </c>
       <c r="L4" t="n">
-        <v>25.779</v>
+        <v>25779</v>
       </c>
       <c r="M4" t="n">
-        <v>27.76</v>
+        <v>2776</v>
       </c>
       <c r="N4" t="n">
-        <v>371.528</v>
+        <v>346544</v>
       </c>
     </row>
     <row r="5">
@@ -650,43 +650,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>34.419</v>
+        <v>34419</v>
       </c>
       <c r="C5" t="n">
-        <v>34.304</v>
+        <v>34304</v>
       </c>
       <c r="D5" t="n">
-        <v>38.879</v>
+        <v>38879</v>
       </c>
       <c r="E5" t="n">
-        <v>34.545</v>
+        <v>34545</v>
       </c>
       <c r="F5" t="n">
-        <v>33.554</v>
+        <v>33554</v>
       </c>
       <c r="G5" t="n">
-        <v>35.958</v>
+        <v>35958</v>
       </c>
       <c r="H5" t="n">
-        <v>34.066</v>
+        <v>34066</v>
       </c>
       <c r="I5" t="n">
-        <v>27.748</v>
+        <v>27748</v>
       </c>
       <c r="J5" t="n">
-        <v>28.413</v>
+        <v>28413</v>
       </c>
       <c r="K5" t="n">
-        <v>28.761</v>
+        <v>28761</v>
       </c>
       <c r="L5" t="n">
-        <v>27.706</v>
+        <v>27706</v>
       </c>
       <c r="M5" t="n">
-        <v>29.169</v>
+        <v>29169</v>
       </c>
       <c r="N5" t="n">
-        <v>387.522</v>
+        <v>387522</v>
       </c>
     </row>
     <row r="6">
@@ -696,43 +696,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16.05</v>
+        <v>1605</v>
       </c>
       <c r="C6" t="n">
-        <v>14.11</v>
+        <v>1411</v>
       </c>
       <c r="D6" t="n">
-        <v>18.095</v>
+        <v>18095</v>
       </c>
       <c r="E6" t="n">
-        <v>17.825</v>
+        <v>17825</v>
       </c>
       <c r="F6" t="n">
-        <v>19.127</v>
+        <v>19127</v>
       </c>
       <c r="G6" t="n">
-        <v>17.875</v>
+        <v>17875</v>
       </c>
       <c r="H6" t="n">
-        <v>22.443</v>
+        <v>22443</v>
       </c>
       <c r="I6" t="n">
-        <v>18.649</v>
+        <v>18649</v>
       </c>
       <c r="J6" t="n">
-        <v>23.443</v>
+        <v>23443</v>
       </c>
       <c r="K6" t="n">
-        <v>18.184</v>
+        <v>18184</v>
       </c>
       <c r="L6" t="n">
-        <v>12.851</v>
+        <v>12851</v>
       </c>
       <c r="M6" t="n">
-        <v>14.864</v>
+        <v>14864</v>
       </c>
       <c r="N6" t="n">
-        <v>213.516</v>
+        <v>186372</v>
       </c>
     </row>
     <row r="7">
@@ -742,43 +742,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12.983</v>
+        <v>12983</v>
       </c>
       <c r="C7" t="n">
-        <v>19.365</v>
+        <v>19365</v>
       </c>
       <c r="D7" t="n">
-        <v>17.045</v>
+        <v>17045</v>
       </c>
       <c r="E7" t="n">
-        <v>17.199</v>
+        <v>17199</v>
       </c>
       <c r="F7" t="n">
-        <v>16.207</v>
+        <v>16207</v>
       </c>
       <c r="G7" t="n">
-        <v>18.534</v>
+        <v>18534</v>
       </c>
       <c r="H7" t="n">
-        <v>20.49</v>
+        <v>2049</v>
       </c>
       <c r="I7" t="n">
-        <v>14.844</v>
+        <v>14844</v>
       </c>
       <c r="J7" t="n">
-        <v>14.083</v>
+        <v>14083</v>
       </c>
       <c r="K7" t="n">
-        <v>15.415</v>
+        <v>15415</v>
       </c>
       <c r="L7" t="n">
-        <v>13.485</v>
+        <v>13485</v>
       </c>
       <c r="M7" t="n">
-        <v>13.779</v>
+        <v>13779</v>
       </c>
       <c r="N7" t="n">
-        <v>193.429</v>
+        <v>174988</v>
       </c>
     </row>
     <row r="8">
@@ -788,43 +788,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>17.766</v>
+        <v>17766</v>
       </c>
       <c r="C8" t="n">
-        <v>8.768000000000001</v>
+        <v>8768</v>
       </c>
       <c r="D8" t="n">
-        <v>19.418</v>
+        <v>19418</v>
       </c>
       <c r="E8" t="n">
-        <v>19.156</v>
+        <v>19156</v>
       </c>
       <c r="F8" t="n">
-        <v>17.993</v>
+        <v>17993</v>
       </c>
       <c r="G8" t="n">
-        <v>20.414</v>
+        <v>20414</v>
       </c>
       <c r="H8" t="n">
-        <v>19.061</v>
+        <v>19061</v>
       </c>
       <c r="I8" t="n">
-        <v>18.753</v>
+        <v>18753</v>
       </c>
       <c r="J8" t="n">
-        <v>22.086</v>
+        <v>22086</v>
       </c>
       <c r="K8" t="n">
-        <v>22.9</v>
+        <v>229</v>
       </c>
       <c r="L8" t="n">
-        <v>32.003</v>
+        <v>32003</v>
       </c>
       <c r="M8" t="n">
-        <v>38.609</v>
+        <v>38609</v>
       </c>
       <c r="N8" t="n">
-        <v>256.927</v>
+        <v>234256</v>
       </c>
     </row>
     <row r="9">
@@ -834,43 +834,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.527</v>
+        <v>4527</v>
       </c>
       <c r="C9" t="n">
-        <v>6.423</v>
+        <v>6423</v>
       </c>
       <c r="D9" t="n">
-        <v>4.381</v>
+        <v>4381</v>
       </c>
       <c r="E9" t="n">
-        <v>3.663</v>
+        <v>3663</v>
       </c>
       <c r="F9" t="n">
-        <v>3.87</v>
+        <v>387</v>
       </c>
       <c r="G9" t="n">
-        <v>4.85</v>
+        <v>485</v>
       </c>
       <c r="H9" t="n">
-        <v>6.232</v>
+        <v>6232</v>
       </c>
       <c r="I9" t="n">
-        <v>6.37</v>
+        <v>637</v>
       </c>
       <c r="J9" t="n">
-        <v>7.762</v>
+        <v>7762</v>
       </c>
       <c r="K9" t="n">
-        <v>7.598</v>
+        <v>7598</v>
       </c>
       <c r="L9" t="n">
-        <v>6.998</v>
+        <v>6998</v>
       </c>
       <c r="M9" t="n">
-        <v>8.874000000000001</v>
+        <v>8874</v>
       </c>
       <c r="N9" t="n">
-        <v>71.54799999999999</v>
+        <v>57967</v>
       </c>
     </row>
     <row r="10">
@@ -880,43 +880,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8.425000000000001</v>
+        <v>8425</v>
       </c>
       <c r="C10" t="n">
-        <v>7.271</v>
+        <v>7271</v>
       </c>
       <c r="D10" t="n">
-        <v>8.039</v>
+        <v>8039</v>
       </c>
       <c r="E10" t="n">
-        <v>8.058</v>
+        <v>8058</v>
       </c>
       <c r="F10" t="n">
-        <v>7.459</v>
+        <v>7459</v>
       </c>
       <c r="G10" t="n">
-        <v>7.894</v>
+        <v>7894</v>
       </c>
       <c r="H10" t="n">
-        <v>7.986</v>
+        <v>7986</v>
       </c>
       <c r="I10" t="n">
-        <v>7.689</v>
+        <v>7689</v>
       </c>
       <c r="J10" t="n">
-        <v>7.811</v>
+        <v>7811</v>
       </c>
       <c r="K10" t="n">
-        <v>7.93</v>
+        <v>793</v>
       </c>
       <c r="L10" t="n">
-        <v>7.283</v>
+        <v>7283</v>
       </c>
       <c r="M10" t="n">
-        <v>8.619999999999999</v>
+        <v>862</v>
       </c>
       <c r="N10" t="n">
-        <v>94.46499999999999</v>
+        <v>79570</v>
       </c>
     </row>
     <row r="11">
@@ -926,43 +926,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6.562</v>
+        <v>6562</v>
       </c>
       <c r="C11" t="n">
-        <v>7.013</v>
+        <v>7013</v>
       </c>
       <c r="D11" t="n">
-        <v>7.18</v>
+        <v>718</v>
       </c>
       <c r="E11" t="n">
-        <v>6.2</v>
+        <v>62</v>
       </c>
       <c r="F11" t="n">
-        <v>6.578</v>
+        <v>6578</v>
       </c>
       <c r="G11" t="n">
-        <v>7.144</v>
+        <v>7144</v>
       </c>
       <c r="H11" t="n">
-        <v>6.561</v>
+        <v>6561</v>
       </c>
       <c r="I11" t="n">
-        <v>5.951</v>
+        <v>5951</v>
       </c>
       <c r="J11" t="n">
-        <v>5.645</v>
+        <v>5645</v>
       </c>
       <c r="K11" t="n">
-        <v>5.859</v>
+        <v>5859</v>
       </c>
       <c r="L11" t="n">
-        <v>5.277</v>
+        <v>5277</v>
       </c>
       <c r="M11" t="n">
-        <v>5.836</v>
+        <v>5836</v>
       </c>
       <c r="N11" t="n">
-        <v>75.806</v>
+        <v>63206</v>
       </c>
     </row>
     <row r="12">
@@ -972,43 +972,43 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.249</v>
+        <v>1249</v>
       </c>
       <c r="C12" t="n">
-        <v>1.539</v>
+        <v>1539</v>
       </c>
       <c r="D12" t="n">
-        <v>1.933</v>
+        <v>1933</v>
       </c>
       <c r="E12" t="n">
-        <v>1.682</v>
+        <v>1682</v>
       </c>
       <c r="F12" t="n">
-        <v>1.896</v>
+        <v>1896</v>
       </c>
       <c r="G12" t="n">
-        <v>2.323</v>
+        <v>2323</v>
       </c>
       <c r="H12" t="n">
-        <v>2.957</v>
+        <v>2957</v>
       </c>
       <c r="I12" t="n">
-        <v>2.699</v>
+        <v>2699</v>
       </c>
       <c r="J12" t="n">
-        <v>2.653</v>
+        <v>2653</v>
       </c>
       <c r="K12" t="n">
-        <v>3.029</v>
+        <v>3029</v>
       </c>
       <c r="L12" t="n">
-        <v>1.465</v>
+        <v>1465</v>
       </c>
       <c r="M12" t="n">
-        <v>1.38</v>
+        <v>138</v>
       </c>
       <c r="N12" t="n">
-        <v>24.805</v>
+        <v>23563</v>
       </c>
     </row>
     <row r="13">
@@ -1018,43 +1018,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5.236</v>
+        <v>5236</v>
       </c>
       <c r="C13" t="n">
-        <v>5.139</v>
+        <v>5139</v>
       </c>
       <c r="D13" t="n">
-        <v>5.959</v>
+        <v>5959</v>
       </c>
       <c r="E13" t="n">
-        <v>5.32</v>
+        <v>532</v>
       </c>
       <c r="F13" t="n">
-        <v>4.532</v>
+        <v>4532</v>
       </c>
       <c r="G13" t="n">
-        <v>5.679</v>
+        <v>5679</v>
       </c>
       <c r="H13" t="n">
-        <v>6.123</v>
+        <v>6123</v>
       </c>
       <c r="I13" t="n">
-        <v>5.126</v>
+        <v>5126</v>
       </c>
       <c r="J13" t="n">
-        <v>5.078</v>
+        <v>5078</v>
       </c>
       <c r="K13" t="n">
-        <v>5.051</v>
+        <v>5051</v>
       </c>
       <c r="L13" t="n">
-        <v>5.446</v>
+        <v>5446</v>
       </c>
       <c r="M13" t="n">
-        <v>6.174</v>
+        <v>6174</v>
       </c>
       <c r="N13" t="n">
-        <v>64.863</v>
+        <v>60075</v>
       </c>
     </row>
     <row r="14">
@@ -1064,43 +1064,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.711</v>
+        <v>2711</v>
       </c>
       <c r="C14" t="n">
-        <v>2.589</v>
+        <v>2589</v>
       </c>
       <c r="D14" t="n">
-        <v>2.727</v>
+        <v>2727</v>
       </c>
       <c r="E14" t="n">
-        <v>2.488</v>
+        <v>2488</v>
       </c>
       <c r="F14" t="n">
-        <v>3.017</v>
+        <v>3017</v>
       </c>
       <c r="G14" t="n">
-        <v>3.292</v>
+        <v>3292</v>
       </c>
       <c r="H14" t="n">
-        <v>3.476</v>
+        <v>3476</v>
       </c>
       <c r="I14" t="n">
-        <v>3.395</v>
+        <v>3395</v>
       </c>
       <c r="J14" t="n">
-        <v>3.251</v>
+        <v>3251</v>
       </c>
       <c r="K14" t="n">
-        <v>3.308</v>
+        <v>3308</v>
       </c>
       <c r="L14" t="n">
-        <v>3.281</v>
+        <v>3281</v>
       </c>
       <c r="M14" t="n">
-        <v>3.334</v>
+        <v>3334</v>
       </c>
       <c r="N14" t="n">
-        <v>36.869</v>
+        <v>36869</v>
       </c>
     </row>
     <row r="15">
@@ -1110,43 +1110,43 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.629</v>
+        <v>1629</v>
       </c>
       <c r="C15" t="n">
-        <v>1.39</v>
+        <v>139</v>
       </c>
       <c r="D15" t="n">
-        <v>1.175</v>
+        <v>1175</v>
       </c>
       <c r="E15" t="n">
-        <v>1.662</v>
+        <v>1662</v>
       </c>
       <c r="F15" t="n">
-        <v>1.38</v>
+        <v>138</v>
       </c>
       <c r="G15" t="n">
-        <v>1.719</v>
+        <v>1719</v>
       </c>
       <c r="H15" t="n">
-        <v>1.886</v>
+        <v>1886</v>
       </c>
       <c r="I15" t="n">
-        <v>1.525</v>
+        <v>1525</v>
       </c>
       <c r="J15" t="n">
-        <v>1.688</v>
+        <v>1688</v>
       </c>
       <c r="K15" t="n">
-        <v>1.619</v>
+        <v>1619</v>
       </c>
       <c r="L15" t="n">
-        <v>1.248</v>
+        <v>1248</v>
       </c>
       <c r="M15" t="n">
-        <v>1.641</v>
+        <v>1641</v>
       </c>
       <c r="N15" t="n">
-        <v>18.562</v>
+        <v>16069</v>
       </c>
     </row>
     <row r="16">
@@ -1156,43 +1156,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.321</v>
+        <v>1321</v>
       </c>
       <c r="C16" t="n">
-        <v>1.574</v>
+        <v>1574</v>
       </c>
       <c r="D16" t="n">
-        <v>1.852</v>
+        <v>1852</v>
       </c>
       <c r="E16" t="n">
-        <v>1.289</v>
+        <v>1289</v>
       </c>
       <c r="F16" t="n">
-        <v>951</v>
+        <v>9510</v>
       </c>
       <c r="G16" t="n">
-        <v>1.195</v>
+        <v>1195</v>
       </c>
       <c r="H16" t="n">
-        <v>1.409</v>
+        <v>1409</v>
       </c>
       <c r="I16" t="n">
-        <v>1.407</v>
+        <v>1407</v>
       </c>
       <c r="J16" t="n">
-        <v>1.419</v>
+        <v>1419</v>
       </c>
       <c r="K16" t="n">
-        <v>1.218</v>
+        <v>1218</v>
       </c>
       <c r="L16" t="n">
-        <v>853</v>
+        <v>8530</v>
       </c>
       <c r="M16" t="n">
-        <v>943</v>
+        <v>9430</v>
       </c>
       <c r="N16" t="n">
-        <v>2759.684</v>
+        <v>40154</v>
       </c>
     </row>
     <row r="17">
@@ -1202,43 +1202,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>729</v>
+        <v>7290</v>
       </c>
       <c r="C17" t="n">
-        <v>691</v>
+        <v>6910</v>
       </c>
       <c r="D17" t="n">
-        <v>734</v>
+        <v>7340</v>
       </c>
       <c r="E17" t="n">
-        <v>540</v>
+        <v>5400</v>
       </c>
       <c r="F17" t="n">
-        <v>597</v>
+        <v>5970</v>
       </c>
       <c r="G17" t="n">
-        <v>710</v>
+        <v>7100</v>
       </c>
       <c r="H17" t="n">
-        <v>823</v>
+        <v>8230</v>
       </c>
       <c r="I17" t="n">
-        <v>803</v>
+        <v>8030</v>
       </c>
       <c r="J17" t="n">
-        <v>824</v>
+        <v>8240</v>
       </c>
       <c r="K17" t="n">
-        <v>861</v>
+        <v>8610</v>
       </c>
       <c r="L17" t="n">
-        <v>806</v>
+        <v>8060</v>
       </c>
       <c r="M17" t="n">
-        <v>837</v>
+        <v>8370</v>
       </c>
       <c r="N17" t="n">
-        <v>8955</v>
+        <v>89550</v>
       </c>
     </row>
     <row r="18">
@@ -1386,19 +1386,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="D21" t="n">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -1416,13 +1416,13 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>55</v>
+        <v>550</v>
       </c>
     </row>
     <row r="22">
@@ -1432,43 +1432,43 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2.868</v>
+        <v>2868</v>
       </c>
       <c r="C22" t="n">
-        <v>3.152</v>
+        <v>3152</v>
       </c>
       <c r="D22" t="n">
-        <v>2.939</v>
+        <v>2939</v>
       </c>
       <c r="E22" t="n">
-        <v>1.871</v>
+        <v>1871</v>
       </c>
       <c r="F22" t="n">
-        <v>2.302</v>
+        <v>2302</v>
       </c>
       <c r="G22" t="n">
-        <v>3.953</v>
+        <v>3953</v>
       </c>
       <c r="H22" t="n">
-        <v>4.745</v>
+        <v>4745</v>
       </c>
       <c r="I22" t="n">
-        <v>5.243</v>
+        <v>5243</v>
       </c>
       <c r="J22" t="n">
-        <v>5.137</v>
+        <v>5137</v>
       </c>
       <c r="K22" t="n">
-        <v>5.122</v>
+        <v>5122</v>
       </c>
       <c r="L22" t="n">
-        <v>5.404</v>
+        <v>5404</v>
       </c>
       <c r="M22" t="n">
-        <v>6.389</v>
+        <v>6389</v>
       </c>
       <c r="N22" t="n">
-        <v>49.12500000000001</v>
+        <v>49125</v>
       </c>
     </row>
     <row r="23">
@@ -1478,43 +1478,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D23" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="E23" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="F23" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I23" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="J23" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K23" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L23" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="M23" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="N23" t="n">
-        <v>22</v>
+        <v>220</v>
       </c>
     </row>
     <row r="24">
@@ -1524,43 +1524,43 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>452</v>
+        <v>4520</v>
       </c>
       <c r="C24" t="n">
-        <v>518</v>
+        <v>5180</v>
       </c>
       <c r="D24" t="n">
-        <v>350</v>
+        <v>3500</v>
       </c>
       <c r="E24" t="n">
-        <v>413</v>
+        <v>4130</v>
       </c>
       <c r="F24" t="n">
-        <v>377</v>
+        <v>3770</v>
       </c>
       <c r="G24" t="n">
-        <v>511</v>
+        <v>5110</v>
       </c>
       <c r="H24" t="n">
-        <v>460</v>
+        <v>4600</v>
       </c>
       <c r="I24" t="n">
-        <v>554</v>
+        <v>5540</v>
       </c>
       <c r="J24" t="n">
-        <v>442</v>
+        <v>4420</v>
       </c>
       <c r="K24" t="n">
-        <v>554</v>
+        <v>5540</v>
       </c>
       <c r="L24" t="n">
-        <v>529</v>
+        <v>5290</v>
       </c>
       <c r="M24" t="n">
-        <v>493</v>
+        <v>4930</v>
       </c>
       <c r="N24" t="n">
-        <v>5653</v>
+        <v>56530</v>
       </c>
     </row>
     <row r="25">
@@ -1646,13 +1646,13 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>353</v>
+        <v>3530</v>
       </c>
       <c r="M26" t="n">
-        <v>322</v>
+        <v>3220</v>
       </c>
       <c r="N26" t="n">
-        <v>675</v>
+        <v>6750</v>
       </c>
     </row>
     <row r="27">
@@ -1662,43 +1662,43 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>29</v>
+        <v>290</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D27" t="n">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="G27" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="H27" t="n">
-        <v>61</v>
+        <v>610</v>
       </c>
       <c r="I27" t="n">
-        <v>52</v>
+        <v>520</v>
       </c>
       <c r="J27" t="n">
-        <v>65</v>
+        <v>650</v>
       </c>
       <c r="K27" t="n">
-        <v>24</v>
+        <v>240</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>14</v>
+        <v>140</v>
       </c>
       <c r="N27" t="n">
-        <v>263</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="28">
@@ -1723,28 +1723,28 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>61</v>
+        <v>610</v>
       </c>
       <c r="H28" t="n">
-        <v>47</v>
+        <v>470</v>
       </c>
       <c r="I28" t="n">
-        <v>394</v>
+        <v>3940</v>
       </c>
       <c r="J28" t="n">
-        <v>40</v>
+        <v>400</v>
       </c>
       <c r="K28" t="n">
-        <v>18</v>
+        <v>180</v>
       </c>
       <c r="L28" t="n">
-        <v>104</v>
+        <v>1040</v>
       </c>
       <c r="M28" t="n">
-        <v>17</v>
+        <v>170</v>
       </c>
       <c r="N28" t="n">
-        <v>681</v>
+        <v>6810</v>
       </c>
     </row>
     <row r="29">
@@ -1760,7 +1760,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -1790,7 +1790,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30">
@@ -1800,43 +1800,43 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>5.466</v>
+        <v>5466</v>
       </c>
       <c r="C30" t="n">
-        <v>1.056</v>
+        <v>1056</v>
       </c>
       <c r="D30" t="n">
-        <v>1.005</v>
+        <v>1005</v>
       </c>
       <c r="E30" t="n">
-        <v>2.829</v>
+        <v>2829</v>
       </c>
       <c r="F30" t="n">
-        <v>2.931</v>
+        <v>2931</v>
       </c>
       <c r="G30" t="n">
-        <v>9.486000000000001</v>
+        <v>9486</v>
       </c>
       <c r="H30" t="n">
-        <v>11.066</v>
+        <v>11066</v>
       </c>
       <c r="I30" t="n">
-        <v>10.261</v>
+        <v>10261</v>
       </c>
       <c r="J30" t="n">
-        <v>8.640000000000001</v>
+        <v>864</v>
       </c>
       <c r="K30" t="n">
-        <v>9.571999999999999</v>
+        <v>9572</v>
       </c>
       <c r="L30" t="n">
-        <v>10.718</v>
+        <v>10718</v>
       </c>
       <c r="M30" t="n">
-        <v>9.182</v>
+        <v>9182</v>
       </c>
       <c r="N30" t="n">
-        <v>82.212</v>
+        <v>74436</v>
       </c>
     </row>
     <row r="31">
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -1882,7 +1882,7 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32">
@@ -1898,7 +1898,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -1907,7 +1907,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1928,7 +1928,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>11</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33">
@@ -1959,22 +1959,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.244</v>
+        <v>1244</v>
       </c>
       <c r="J33" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="K33" t="n">
-        <v>196</v>
+        <v>1960</v>
       </c>
       <c r="L33" t="n">
-        <v>137</v>
+        <v>1370</v>
       </c>
       <c r="M33" t="n">
-        <v>120</v>
+        <v>1200</v>
       </c>
       <c r="N33" t="n">
-        <v>457.244</v>
+        <v>5804</v>
       </c>
     </row>
   </sheetData>
